--- a/biology/Mycologie/Bipolaris_oryzae/Bipolaris_oryzae.xlsx
+++ b/biology/Mycologie/Bipolaris_oryzae/Bipolaris_oryzae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bipolaris oryzae est une espèce de champignons ascomycètes de la famille des Pleosporaceae, originaire du Sud-Est asiatique et responsable de l'helminthosporiose du riz.
-Cette maladie fongique est l'une des plus communes et des plus graves maladies du riz. Elle peut réduire les rendements et la qualité des grains. Les pertes de rendement sont estimées en moyenne à 5 % dans les plaines du sud de l'Asie, mais peuvent atteindre 45 % en cas d'infection grave[2].  Cette maladie est à l'origine de la famine du Bengale de 1943[3].
+Cette maladie fongique est l'une des plus communes et des plus graves maladies du riz. Elle peut réduire les rendements et la qualité des grains. Les pertes de rendement sont estimées en moyenne à 5 % dans les plaines du sud de l'Asie, mais peuvent atteindre 45 % en cas d'infection grave.  Cette maladie est à l'origine de la famine du Bengale de 1943.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 juillet 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 juillet 2014) :
 Cochliobolus miyabeanus (S. Ito &amp; Kurib.) Drechsler ex Dastur 1942,
 Drechslera oryzae (Breda de Haan) Subram. &amp; B.L. Jain 1966,
 Helminthosporium macrocarpum Grev. 1824,
@@ -549,9 +563,11 @@
           <t>Dissémination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet agent phytopathogène est inscrit sur la liste établie par le groupe Australie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet agent phytopathogène est inscrit sur la liste établie par le groupe Australie.
 </t>
         </is>
       </c>
